--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>0.1726826797743485</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.792532998684656</v>
+        <v>-1.788276063971098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04312587703511712</v>
+        <v>0.04367835774669366</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07984436681649912</v>
+        <v>-0.08101701106186812</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1780452375940043</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.836801499461677</v>
+        <v>-1.834847354722583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02137450679786292</v>
+        <v>0.02265261032435907</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06247191777470342</v>
+        <v>-0.06235858839796977</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1914626709898084</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.93776695599751</v>
+        <v>-1.935972574199227</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01850956371677521</v>
+        <v>-0.01946971538076863</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06786608130340088</v>
+        <v>-0.06941649013788205</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2059329878536022</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.980292230597691</v>
+        <v>-1.976341442603226</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03784324058371156</v>
+        <v>-0.03836109287461949</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06328725967953718</v>
+        <v>-0.06435601866290035</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2163657019002801</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.936490426490135</v>
+        <v>-1.929948016012449</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02081235369123812</v>
+        <v>-0.0200804347998333</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08061406216681515</v>
+        <v>-0.08265556496714214</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.219923853349896</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.80831804944262</v>
+        <v>-1.800545543021637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02034195025428966</v>
+        <v>0.02112581177669741</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06918825736529345</v>
+        <v>-0.06972027582829309</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2173190142987612</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.536936690681805</v>
+        <v>-1.527438272294316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648300329847476</v>
+        <v>0.05648615133671736</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06459684358845935</v>
+        <v>-0.06479674401686454</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2098811157288414</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.130390374927096</v>
+        <v>-1.1183420455631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04862392582582042</v>
+        <v>0.04726082526677403</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04933358016920658</v>
+        <v>-0.04923599098368594</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2050126750342534</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6243164691038626</v>
+        <v>-0.6117526484776405</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04222711211685443</v>
+        <v>0.0403430112286575</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02124835698783841</v>
+        <v>-0.02193777736296811</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2161876260186492</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1172729675019082</v>
+        <v>-0.1050349688337953</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05317576084430156</v>
+        <v>-0.05552577139240349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01727261296775332</v>
+        <v>0.01650606565567989</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2574653109521752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4687579616451574</v>
+        <v>0.4818837070976839</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2314837949434861</v>
+        <v>-0.2319654447946041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07755282325620576</v>
+        <v>0.07635342068577464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3417217438093478</v>
       </c>
       <c r="E13" t="n">
-        <v>1.051568447670042</v>
+        <v>1.066652272909466</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5116340142290677</v>
+        <v>-0.5096460280788649</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1683343760772229</v>
+        <v>0.1668359098737447</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4693290298195546</v>
       </c>
       <c r="E14" t="n">
-        <v>1.642450503748956</v>
+        <v>1.659246861792356</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8209586779279575</v>
+        <v>-0.8175887029892528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.270899036040297</v>
+        <v>0.2674566562220124</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6308600079646423</v>
       </c>
       <c r="E15" t="n">
-        <v>2.329108475320774</v>
+        <v>2.349279530360243</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.157987652180861</v>
+        <v>-1.154141536457963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3934883672645585</v>
+        <v>0.3904977309340872</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8044977827177715</v>
       </c>
       <c r="E16" t="n">
-        <v>2.874436844010126</v>
+        <v>2.897113737490705</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.507046067568305</v>
+        <v>-1.503051994048004</v>
       </c>
       <c r="G16" t="n">
-        <v>0.522166004450011</v>
+        <v>0.5205746711183761</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.971986843466625</v>
       </c>
       <c r="E17" t="n">
-        <v>3.372862590922959</v>
+        <v>3.395608741244875</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.848298922133218</v>
+        <v>-1.844296191507751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6409635236110591</v>
+        <v>0.6375636423090497</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.121535292555907</v>
       </c>
       <c r="E18" t="n">
-        <v>3.782815871065723</v>
+        <v>3.803270249547026</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.156533577590607</v>
+        <v>-2.149978574959951</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7965175372927209</v>
+        <v>0.7941958590888024</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.246853660146922</v>
       </c>
       <c r="E19" t="n">
-        <v>4.128917491533803</v>
+        <v>4.147764796492257</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.509204366861436</v>
+        <v>-2.501444452593424</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9399657699124591</v>
+        <v>0.9374253030506798</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.345518816196247</v>
       </c>
       <c r="E20" t="n">
-        <v>4.44157750175073</v>
+        <v>4.461432178946817</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.829610912183844</v>
+        <v>-2.819863798775189</v>
       </c>
       <c r="G20" t="n">
-        <v>1.059806863750929</v>
+        <v>1.05549877341593</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.415810842337192</v>
       </c>
       <c r="E21" t="n">
-        <v>4.655582715501892</v>
+        <v>4.671898997713296</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.101475494814899</v>
+        <v>-3.090528978835813</v>
       </c>
       <c r="G21" t="n">
-        <v>1.167381626577104</v>
+        <v>1.161715157740421</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.46034424289269</v>
       </c>
       <c r="E22" t="n">
-        <v>4.823258250436691</v>
+        <v>4.83943601896542</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.316503820994907</v>
+        <v>-3.302838186983774</v>
       </c>
       <c r="G22" t="n">
-        <v>1.251209162920214</v>
+        <v>1.243949786732776</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.485416751451197</v>
       </c>
       <c r="E23" t="n">
-        <v>4.93511119723456</v>
+        <v>4.950495660126153</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.456362503008519</v>
+        <v>-3.442681128806173</v>
       </c>
       <c r="G23" t="n">
-        <v>1.327649827527061</v>
+        <v>1.319620755989306</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.499217290711199</v>
       </c>
       <c r="E24" t="n">
-        <v>5.004931537417216</v>
+        <v>5.020388405188389</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.571459503215389</v>
+        <v>-3.557150882393205</v>
       </c>
       <c r="G24" t="n">
-        <v>1.388650938573069</v>
+        <v>1.380176419623986</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.510499520484353</v>
       </c>
       <c r="E25" t="n">
-        <v>4.997056719753349</v>
+        <v>5.010804202758789</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.673167896776475</v>
+        <v>-3.65897811439795</v>
       </c>
       <c r="G25" t="n">
-        <v>1.427782627947726</v>
+        <v>1.41923255608082</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.522654471852599</v>
       </c>
       <c r="E26" t="n">
-        <v>4.98391523410961</v>
+        <v>4.995967498521408</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.692157650465408</v>
+        <v>-3.678688768844438</v>
       </c>
       <c r="G26" t="n">
-        <v>1.451992616052451</v>
+        <v>1.442778308116357</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.533853002833425</v>
       </c>
       <c r="E27" t="n">
-        <v>4.939853716847039</v>
+        <v>4.949895958840938</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.648932724365809</v>
+        <v>-3.637846907694488</v>
       </c>
       <c r="G27" t="n">
-        <v>1.448175619683297</v>
+        <v>1.439348520451043</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.542104286402188</v>
       </c>
       <c r="E28" t="n">
-        <v>4.788870654693635</v>
+        <v>4.798659479609004</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.580872137560767</v>
+        <v>-3.570758277696849</v>
       </c>
       <c r="G28" t="n">
-        <v>1.400106649737896</v>
+        <v>1.390631054627665</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.545419069350194</v>
       </c>
       <c r="E29" t="n">
-        <v>4.65967044315991</v>
+        <v>4.668558929137895</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.492121856415788</v>
+        <v>-3.482440851810229</v>
       </c>
       <c r="G29" t="n">
-        <v>1.35632845591716</v>
+        <v>1.347439969939175</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.54058742241391</v>
       </c>
       <c r="E30" t="n">
-        <v>4.50576442749825</v>
+        <v>4.512391047998926</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.361809600372865</v>
+        <v>-3.349830527850206</v>
       </c>
       <c r="G30" t="n">
-        <v>1.304003338267761</v>
+        <v>1.29536197329182</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.524892376525124</v>
       </c>
       <c r="E31" t="n">
-        <v>4.349346277318994</v>
+        <v>4.354814419746393</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.239686178808509</v>
+        <v>-3.227134950335257</v>
       </c>
       <c r="G31" t="n">
-        <v>1.241092942027615</v>
+        <v>1.234379750475268</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.494859588639618</v>
       </c>
       <c r="E32" t="n">
-        <v>4.21310390423657</v>
+        <v>4.219588863016329</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.099912493827447</v>
+        <v>-3.086621476367184</v>
       </c>
       <c r="G32" t="n">
-        <v>1.170718547114261</v>
+        <v>1.163400932219334</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.449179006757685</v>
       </c>
       <c r="E33" t="n">
-        <v>4.007842366704233</v>
+        <v>4.013754382523839</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.974295536823364</v>
+        <v>-2.959362817419584</v>
       </c>
       <c r="G33" t="n">
-        <v>1.101658458167194</v>
+        <v>1.094907490155935</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.38706052394548</v>
       </c>
       <c r="E34" t="n">
-        <v>3.752791456326912</v>
+        <v>3.759224472475668</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.896852222036248</v>
+        <v>-2.882571146548687</v>
       </c>
       <c r="G34" t="n">
-        <v>1.043037264032592</v>
+        <v>1.036512954774801</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.314062059742961</v>
       </c>
       <c r="E35" t="n">
-        <v>3.511722557804105</v>
+        <v>3.518076872996796</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.802539357316593</v>
+        <v>-2.786649634287063</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9453552113837926</v>
+        <v>0.9375795569245673</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.234754470634275</v>
       </c>
       <c r="E36" t="n">
-        <v>3.24987660688013</v>
+        <v>3.254619126492609</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.74101173687451</v>
+        <v>-2.727474385421763</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8738459486839811</v>
+        <v>0.8663709318769242</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.155021463187669</v>
       </c>
       <c r="E37" t="n">
-        <v>3.004413046970651</v>
+        <v>3.010413207861049</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.643233669059311</v>
+        <v>-2.62999302021093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8233010466607734</v>
+        <v>0.8173858828029255</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.077313624412079</v>
       </c>
       <c r="E38" t="n">
-        <v>2.713743657897417</v>
+        <v>2.717574820438663</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.558168166677298</v>
+        <v>-2.546852543214267</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7554954509533824</v>
+        <v>0.7489585495426206</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.002748905886839</v>
       </c>
       <c r="E39" t="n">
-        <v>2.457236779832893</v>
+        <v>2.460359633769554</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.44105327395692</v>
+        <v>-2.427921232427908</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6860135248818061</v>
+        <v>0.6794970857196213</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9298626137935136</v>
       </c>
       <c r="E40" t="n">
-        <v>2.221152799867246</v>
+        <v>2.223850668641155</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.343200440233459</v>
+        <v>-2.329270371009948</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6359156442890479</v>
+        <v>0.6308299885081253</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8579544287162255</v>
       </c>
       <c r="E41" t="n">
-        <v>2.020759703477091</v>
+        <v>2.023762931960533</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.249739119858428</v>
+        <v>-2.236726703782635</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5715571504573054</v>
+        <v>0.5666619509900602</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7877655991497438</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76304555274653</v>
+        <v>1.763717658911325</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.152728386364863</v>
+        <v>-2.140104753012031</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5025694663898175</v>
+        <v>0.4981291584486283</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7193452637311407</v>
       </c>
       <c r="E43" t="n">
-        <v>1.546181920271085</v>
+        <v>1.546905969066883</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.070731434259825</v>
+        <v>-2.057937806841893</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4496304812831114</v>
+        <v>0.4454152580762682</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6539879906096361</v>
       </c>
       <c r="E44" t="n">
-        <v>1.311999355403968</v>
+        <v>1.310845599388055</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.982174757466766</v>
+        <v>-1.969400805287851</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4060836682732066</v>
+        <v>0.4036659749028887</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5939703020207828</v>
       </c>
       <c r="E45" t="n">
-        <v>1.102119645769735</v>
+        <v>1.101291711711931</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.904841624018142</v>
+        <v>-1.892727972860612</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3479630122191787</v>
+        <v>0.345990766260189</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5393592201496361</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9005617752298177</v>
+        <v>0.8988980370186028</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.838241726957668</v>
+        <v>-1.826279968645343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2781536901703719</v>
+        <v>0.2759091389033971</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4916984761173994</v>
       </c>
       <c r="E47" t="n">
-        <v>0.73841734348727</v>
+        <v>0.7361003873407154</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.793290101882002</v>
+        <v>-1.78256630960858</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2418473651184503</v>
+        <v>0.2404228778136731</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4501511466094338</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5788905055434452</v>
+        <v>0.5770079786743696</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.725178359455518</v>
+        <v>-1.713789544103347</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1995046767363405</v>
+        <v>0.1990057126748881</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4142325140816259</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4496808498949931</v>
+        <v>0.4471293648993647</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.677542244768474</v>
+        <v>-1.66639268032274</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1423614865566403</v>
+        <v>0.1404584974389878</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3826384369781439</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3551405394123099</v>
+        <v>0.354921750754449</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.611761624660636</v>
+        <v>-1.599417379701835</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1120380081847825</v>
+        <v>0.1113627539817445</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3537062256720848</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2228033077698332</v>
+        <v>0.2219706516546652</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.563746958374919</v>
+        <v>-1.55269891816251</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07449450410351853</v>
+        <v>0.07361777545295405</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3269309378849554</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1162406392386554</v>
+        <v>0.1155055723090079</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.516622399902298</v>
+        <v>-1.504356855899562</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04543653710518653</v>
+        <v>0.04510441907059209</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3016664478315269</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02105183287799628</v>
+        <v>0.01887968649060133</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.503381751053917</v>
+        <v>-1.493114424325672</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006336328112956144</v>
+        <v>0.006093929168275838</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.277762475292081</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07245434704199238</v>
+        <v>-0.0752435089249372</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.484953922191289</v>
+        <v>-1.474433178384515</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01518051327522426</v>
+        <v>-0.01568262537491918</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2549713124706644</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1441934165335138</v>
+        <v>-0.1468676750206037</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.470733446439898</v>
+        <v>-1.459766468212235</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04504595208278351</v>
+        <v>-0.04558898867963224</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.233844861447331</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.217522245337549</v>
+        <v>-0.2217532087356052</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.477079104527421</v>
+        <v>-1.466365543378288</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07439196458031352</v>
+        <v>-0.07436520625525142</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2145086433070572</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2706265024519916</v>
+        <v>-0.2740720303085188</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.47229723443691</v>
+        <v>-1.461157114105904</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1138384577792301</v>
+        <v>-0.1158799605795571</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1977649682429174</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3581939082273127</v>
+        <v>-0.3627396754496292</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.471635359396403</v>
+        <v>-1.460541672629476</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1322686476705398</v>
+        <v>-0.1337135972238939</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1838724213650176</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4339876509753048</v>
+        <v>-0.4390827508709551</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.495152779087757</v>
+        <v>-1.485289975273687</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1552005322487695</v>
+        <v>-0.1564251191251415</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1725791043214994</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4963896390392705</v>
+        <v>-0.4994747165170199</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.511000790610573</v>
+        <v>-1.501539361672434</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.19088826778602</v>
+        <v>-0.193191057760483</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1623855578700641</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5703008549181869</v>
+        <v>-0.5740328542547909</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.541802770795306</v>
+        <v>-1.532972523524809</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2120226225277244</v>
+        <v>-0.2139869983911076</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1533424903506988</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6262588086995476</v>
+        <v>-0.630343388319323</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.566355895068475</v>
+        <v>-1.556141297980794</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2229305750383381</v>
+        <v>-0.2243062677503549</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1449764779588306</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6800241538449365</v>
+        <v>-0.6845746431246169</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.612907510580943</v>
+        <v>-1.603249329252642</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2576754731219295</v>
+        <v>-0.2594824470731827</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1364842501707683</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7379889820059558</v>
+        <v>-0.7432241696034018</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.656555060814611</v>
+        <v>-1.647585512851879</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2764409290860763</v>
+        <v>-0.2773963586927058</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1279028875963529</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8180845190124625</v>
+        <v>-0.8247410458764431</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.701046285297296</v>
+        <v>-1.692031090780047</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3074868822346111</v>
+        <v>-0.3098919834519586</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1207605050156461</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.901021160532917</v>
+        <v>-0.9104424519834623</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.740059136228294</v>
+        <v>-1.731036071615438</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3248797935249837</v>
+        <v>-0.3263719636519767</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1145654142507127</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9531888762701858</v>
+        <v>-0.9624094802827652</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.767614701975345</v>
+        <v>-1.757727500864895</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3495194888498246</v>
+        <v>-0.3513500730878973</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1096808065132442</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.004475928309087</v>
+        <v>-1.017078312403781</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.799370537747586</v>
+        <v>-1.788937939011605</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3764997506080398</v>
+        <v>-0.3790890120625794</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1047437675728556</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.031261798705821</v>
+        <v>-1.045215478216152</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.830106409129225</v>
+        <v>-1.817240376831713</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3941429309386992</v>
+        <v>-0.3964189625880999</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1002662859972685</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.028668602203478</v>
+        <v>-1.04257584814973</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.86455303058933</v>
+        <v>-1.852581041152717</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4216882655614612</v>
+        <v>-0.4253447119802427</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09492891417343045</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.026735706722521</v>
+        <v>-1.038353541856841</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.889114811967666</v>
+        <v>-1.876750891769849</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4315589394711378</v>
+        <v>-0.4353444554578659</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08807363842991495</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.035196059499512</v>
+        <v>-1.048841231262068</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.933917692236369</v>
+        <v>-1.922027551794064</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4360496160242087</v>
+        <v>-0.4396588418693511</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.0800200806683628</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.000935959305281</v>
+        <v>-1.015434249431582</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.949180168646061</v>
+        <v>-1.935343753560268</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4481711372773453</v>
+        <v>-0.4516827739369671</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06950320136909768</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9446938950725259</v>
+        <v>-0.9581533325787681</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.990469838236021</v>
+        <v>-1.977632138282692</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4515222239865944</v>
+        <v>-0.4560191966161505</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.05930663682097891</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8870981743954518</v>
+        <v>-0.9009747269688386</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.013734627858406</v>
+        <v>-2.000212229587312</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4575853456418447</v>
+        <v>-0.4618556595179334</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.04796740982187002</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7952738339065729</v>
+        <v>-0.8084908724681348</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.051732236456165</v>
+        <v>-2.040204120411759</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4475871761833427</v>
+        <v>-0.4512577887742159</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.03642723103636598</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7053941940420611</v>
+        <v>-0.7201411791895272</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.05038251505965</v>
+        <v>-2.040259211081004</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4308522048856738</v>
+        <v>-0.4337405299732606</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.02472260309860251</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5924410078784024</v>
+        <v>-0.6067441196336617</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.060057223588724</v>
+        <v>-2.051523678922593</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4228010970802208</v>
+        <v>-0.4256736819765946</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01381320950866297</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4343795817365086</v>
+        <v>-0.4484812190442415</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.046150764652033</v>
+        <v>-2.038538021171862</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3968093193301825</v>
+        <v>-0.3994143209759352</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.004474864902572467</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2974257520112571</v>
+        <v>-0.3124639306961638</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.013131778534948</v>
+        <v>-2.005542645341596</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3782595039856539</v>
+        <v>-0.3811556991688472</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.001756988458727634</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.09408136976866384</v>
+        <v>-0.1082554119559765</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.975826738350561</v>
+        <v>-1.967158615049558</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3537882287067921</v>
+        <v>-0.3573093094811418</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.005114926660468969</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0810644599158276</v>
+        <v>0.06789621594702605</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.931722722571715</v>
+        <v>-1.922794099106137</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3392726243701571</v>
+        <v>-0.344553458522121</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.006133617279723226</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2836690531714095</v>
+        <v>0.2693234428998751</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.876844545907567</v>
+        <v>-1.868865055972133</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.296577355704876</v>
+        <v>-0.300728044127746</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.006056841514500779</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5038680321648905</v>
+        <v>0.4924201910956706</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.799760894489669</v>
+        <v>-1.793071313224141</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2697954203559448</v>
+        <v>-0.2750872726417578</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.005703130901195909</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6912455644410096</v>
+        <v>0.6811686940264426</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.684709540837316</v>
+        <v>-1.678256849449544</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2480314579657202</v>
+        <v>-0.2544629000953548</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.006509683879387679</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9020350571273551</v>
+        <v>0.890868965480848</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.599427610826124</v>
+        <v>-1.594632361573081</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2139917204484715</v>
+        <v>-0.2203539057367689</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0095896376974966</v>
       </c>
       <c r="E87" t="n">
-        <v>1.118503610803353</v>
+        <v>1.109009127463668</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.485848752061748</v>
+        <v>-1.483289396970513</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1715294066131429</v>
+        <v>-0.176555249667456</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01637004439694024</v>
       </c>
       <c r="E88" t="n">
-        <v>1.294291640289336</v>
+        <v>1.286764680851276</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.326380939834972</v>
+        <v>-1.322515148873058</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1473587689864495</v>
+        <v>-0.1532046760029603</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0278836149636643</v>
       </c>
       <c r="E89" t="n">
-        <v>1.430696137341253</v>
+        <v>1.424187568274675</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.14403318566097</v>
+        <v>-1.139902959486677</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1195694613998859</v>
+        <v>-0.1253681478427576</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04527739132978524</v>
       </c>
       <c r="E90" t="n">
-        <v>1.547666220302471</v>
+        <v>1.541700687832742</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9600972461935745</v>
+        <v>-0.9564478828608388</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09197218414612092</v>
+        <v>-0.09691303016788377</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06957700422897491</v>
       </c>
       <c r="E91" t="n">
-        <v>1.618824476738233</v>
+        <v>1.611284925147202</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7679299737313374</v>
+        <v>-0.7651785883073038</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09612444658811213</v>
+        <v>-0.1013297278222535</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1016968771361887</v>
       </c>
       <c r="E92" t="n">
-        <v>1.689255536339953</v>
+        <v>1.6845444971099</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5705479759202311</v>
+        <v>-0.5698963320040127</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08874072289009061</v>
+        <v>-0.09357925766896892</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1413391386575849</v>
       </c>
       <c r="E93" t="n">
-        <v>1.70321708594589</v>
+        <v>1.700141452582869</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003256780471682</v>
+        <v>-0.4003508623531091</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0903226121069978</v>
+        <v>-0.0942104393366105</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.184736893614595</v>
       </c>
       <c r="E94" t="n">
-        <v>1.691386758230194</v>
+        <v>1.688773886488835</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.216475522621884</v>
+        <v>-0.2168548612301175</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1048067360612067</v>
+        <v>-0.1071850789534921</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.228418624812132</v>
       </c>
       <c r="E95" t="n">
-        <v>1.660465152592242</v>
+        <v>1.658333930702001</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07255508426575563</v>
+        <v>-0.07198528934384478</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1116741814874416</v>
+        <v>-0.1144869536572059</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2688953445773759</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606723417733673</v>
+        <v>1.606913874047351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02741244414717236</v>
+        <v>0.02561491431064697</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1199724102949389</v>
+        <v>-0.1213953235805947</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3025533568565854</v>
       </c>
       <c r="E97" t="n">
-        <v>1.520843360456386</v>
+        <v>1.523385401337287</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08965073422252284</v>
+        <v>0.08763284170901536</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1394005283091532</v>
+        <v>-0.1400584683018569</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3266729184466171</v>
       </c>
       <c r="E98" t="n">
-        <v>1.382376898355565</v>
+        <v>1.383025394233541</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1396872280695504</v>
+        <v>0.1381871878469509</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1482229054840436</v>
+        <v>-0.1489831567196318</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3392965782057493</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254818388765357</v>
+        <v>1.255517253255215</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473023325784031</v>
+        <v>0.1445965937088872</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1620947360000665</v>
+        <v>-0.1625260172393029</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3378603257668369</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124966533315414</v>
+        <v>1.125186895992396</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1617471060545796</v>
+        <v>0.1579852003546709</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1692313386960439</v>
+        <v>-0.1696531758205524</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3257927248941062</v>
       </c>
       <c r="E101" t="n">
-        <v>1.017217054366776</v>
+        <v>1.018559692677245</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1749263681572302</v>
+        <v>0.1716319461363479</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1933248493857935</v>
+        <v>-0.1938505717723079</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3013414423993063</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8994221853859959</v>
+        <v>0.9002328052334658</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1655483622325207</v>
+        <v>0.1604926128149029</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1914423225167179</v>
+        <v>-0.1906537389369462</v>
       </c>
     </row>
   </sheetData>
